--- a/stock_predictor_ai/data/cleaned/TRGP.xlsx
+++ b/stock_predictor_ai/data/cleaned/TRGP.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3663"/>
+  <dimension ref="A1:F3664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73709,6 +73709,26 @@
         <v>76754</v>
       </c>
     </row>
+    <row r="3664">
+      <c r="A3664" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B3664" t="n">
+        <v>173.2700042724609</v>
+      </c>
+      <c r="C3664" t="n">
+        <v>174.9600067138672</v>
+      </c>
+      <c r="D3664" t="n">
+        <v>173.1999969482422</v>
+      </c>
+      <c r="E3664" t="n">
+        <v>174.9600067138672</v>
+      </c>
+      <c r="F3664" t="n">
+        <v>42656</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/TRGP.xlsx
+++ b/stock_predictor_ai/data/cleaned/TRGP.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3664"/>
+  <dimension ref="A1:F3665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73729,6 +73729,26 @@
         <v>42656</v>
       </c>
     </row>
+    <row r="3665">
+      <c r="A3665" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B3665" t="n">
+        <v>169.3099975585938</v>
+      </c>
+      <c r="C3665" t="n">
+        <v>172.8000030517578</v>
+      </c>
+      <c r="D3665" t="n">
+        <v>168.0200042724609</v>
+      </c>
+      <c r="E3665" t="n">
+        <v>172.8000030517578</v>
+      </c>
+      <c r="F3665" t="n">
+        <v>897100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/TRGP.xlsx
+++ b/stock_predictor_ai/data/cleaned/TRGP.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3665"/>
+  <dimension ref="A1:F3666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73749,6 +73749,26 @@
         <v>897100</v>
       </c>
     </row>
+    <row r="3666">
+      <c r="A3666" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B3666" t="n">
+        <v>166.3354034423828</v>
+      </c>
+      <c r="C3666" t="n">
+        <v>171.0850067138672</v>
+      </c>
+      <c r="D3666" t="n">
+        <v>166.3354034423828</v>
+      </c>
+      <c r="E3666" t="n">
+        <v>170.2700042724609</v>
+      </c>
+      <c r="F3666" t="n">
+        <v>131292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/TRGP.xlsx
+++ b/stock_predictor_ai/data/cleaned/TRGP.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3666"/>
+  <dimension ref="A1:F3667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73769,6 +73769,26 @@
         <v>131292</v>
       </c>
     </row>
+    <row r="3667">
+      <c r="A3667" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B3667" t="n">
+        <v>166.1499938964844</v>
+      </c>
+      <c r="C3667" t="n">
+        <v>167.6549987792969</v>
+      </c>
+      <c r="D3667" t="n">
+        <v>165.2700042724609</v>
+      </c>
+      <c r="E3667" t="n">
+        <v>166.7599945068359</v>
+      </c>
+      <c r="F3667" t="n">
+        <v>430871</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/TRGP.xlsx
+++ b/stock_predictor_ai/data/cleaned/TRGP.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3667"/>
+  <dimension ref="A1:F3662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73689,106 +73691,6 @@
         <v>2892000</v>
       </c>
     </row>
-    <row r="3663">
-      <c r="A3663" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B3663" t="n">
-        <v>174.2100067138672</v>
-      </c>
-      <c r="C3663" t="n">
-        <v>175.0399932861328</v>
-      </c>
-      <c r="D3663" t="n">
-        <v>174.0099945068359</v>
-      </c>
-      <c r="E3663" t="n">
-        <v>174.2899932861328</v>
-      </c>
-      <c r="F3663" t="n">
-        <v>76754</v>
-      </c>
-    </row>
-    <row r="3664">
-      <c r="A3664" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B3664" t="n">
-        <v>173.2700042724609</v>
-      </c>
-      <c r="C3664" t="n">
-        <v>174.9600067138672</v>
-      </c>
-      <c r="D3664" t="n">
-        <v>173.1999969482422</v>
-      </c>
-      <c r="E3664" t="n">
-        <v>174.9600067138672</v>
-      </c>
-      <c r="F3664" t="n">
-        <v>42656</v>
-      </c>
-    </row>
-    <row r="3665">
-      <c r="A3665" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B3665" t="n">
-        <v>169.3099975585938</v>
-      </c>
-      <c r="C3665" t="n">
-        <v>172.8000030517578</v>
-      </c>
-      <c r="D3665" t="n">
-        <v>168.0200042724609</v>
-      </c>
-      <c r="E3665" t="n">
-        <v>172.8000030517578</v>
-      </c>
-      <c r="F3665" t="n">
-        <v>897100</v>
-      </c>
-    </row>
-    <row r="3666">
-      <c r="A3666" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B3666" t="n">
-        <v>166.3354034423828</v>
-      </c>
-      <c r="C3666" t="n">
-        <v>171.0850067138672</v>
-      </c>
-      <c r="D3666" t="n">
-        <v>166.3354034423828</v>
-      </c>
-      <c r="E3666" t="n">
-        <v>170.2700042724609</v>
-      </c>
-      <c r="F3666" t="n">
-        <v>131292</v>
-      </c>
-    </row>
-    <row r="3667">
-      <c r="A3667" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B3667" t="n">
-        <v>166.1499938964844</v>
-      </c>
-      <c r="C3667" t="n">
-        <v>167.6549987792969</v>
-      </c>
-      <c r="D3667" t="n">
-        <v>165.2700042724609</v>
-      </c>
-      <c r="E3667" t="n">
-        <v>166.7599945068359</v>
-      </c>
-      <c r="F3667" t="n">
-        <v>430871</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
